--- a/AAII_Financials/Yearly/BOSSY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BOSSY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="92">
   <si>
     <t>BOSSY</t>
   </si>
@@ -712,13 +712,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>3863200</v>
+        <v>3932200</v>
       </c>
       <c r="E8" s="3">
-        <v>2947700</v>
+        <v>3000400</v>
       </c>
       <c r="F8" s="3">
-        <v>2058700</v>
+        <v>2095500</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -739,13 +739,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1476000</v>
+        <v>1502300</v>
       </c>
       <c r="E9" s="3">
-        <v>1127100</v>
+        <v>1147200</v>
       </c>
       <c r="F9" s="3">
-        <v>802600</v>
+        <v>817000</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -766,13 +766,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>2387200</v>
+        <v>2429800</v>
       </c>
       <c r="E10" s="3">
-        <v>1820600</v>
+        <v>1853100</v>
       </c>
       <c r="F10" s="3">
-        <v>1256100</v>
+        <v>1278500</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -806,13 +806,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>82500</v>
+        <v>84000</v>
       </c>
       <c r="E12" s="3">
-        <v>58200</v>
+        <v>59300</v>
       </c>
       <c r="F12" s="3">
-        <v>59000</v>
+        <v>60100</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -860,13 +860,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="E14" s="3">
-        <v>-32100</v>
+        <v>-32700</v>
       </c>
       <c r="F14" s="3">
-        <v>-26500</v>
+        <v>-27000</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -890,10 +890,10 @@
         <v>2900</v>
       </c>
       <c r="E15" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="F15" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
@@ -924,13 +924,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3508300</v>
+        <v>3571000</v>
       </c>
       <c r="E17" s="3">
-        <v>2706500</v>
+        <v>2754800</v>
       </c>
       <c r="F17" s="3">
-        <v>2308000</v>
+        <v>2349200</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -951,13 +951,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>354900</v>
+        <v>361200</v>
       </c>
       <c r="E18" s="3">
-        <v>241200</v>
+        <v>245500</v>
       </c>
       <c r="F18" s="3">
-        <v>-249300</v>
+        <v>-253700</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -991,13 +991,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-25400</v>
+        <v>-25900</v>
       </c>
       <c r="E20" s="3">
-        <v>-9100</v>
+        <v>-9200</v>
       </c>
       <c r="F20" s="3">
-        <v>-9700</v>
+        <v>-9900</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1017,11 +1017,11 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>709300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>604100</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1045,13 +1045,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>27600</v>
+        <v>28100</v>
       </c>
       <c r="E22" s="3">
-        <v>23900</v>
+        <v>24300</v>
       </c>
       <c r="F22" s="3">
-        <v>30100</v>
+        <v>30600</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1072,13 +1072,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>301800</v>
+        <v>307200</v>
       </c>
       <c r="E23" s="3">
-        <v>208300</v>
+        <v>212000</v>
       </c>
       <c r="F23" s="3">
-        <v>-289100</v>
+        <v>-294200</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1099,13 +1099,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>67100</v>
+        <v>68300</v>
       </c>
       <c r="E24" s="3">
-        <v>55800</v>
+        <v>56800</v>
       </c>
       <c r="F24" s="3">
-        <v>-57200</v>
+        <v>-58200</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1153,13 +1153,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>234700</v>
+        <v>238900</v>
       </c>
       <c r="E26" s="3">
-        <v>152500</v>
+        <v>155200</v>
       </c>
       <c r="F26" s="3">
-        <v>-231900</v>
+        <v>-236000</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1180,13 +1180,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>221600</v>
+        <v>225600</v>
       </c>
       <c r="E27" s="3">
-        <v>145300</v>
+        <v>147900</v>
       </c>
       <c r="F27" s="3">
-        <v>-232300</v>
+        <v>-236500</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1315,13 +1315,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>25400</v>
+        <v>25900</v>
       </c>
       <c r="E32" s="3">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="F32" s="3">
-        <v>9700</v>
+        <v>9900</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1342,13 +1342,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>221600</v>
+        <v>225600</v>
       </c>
       <c r="E33" s="3">
-        <v>145300</v>
+        <v>147900</v>
       </c>
       <c r="F33" s="3">
-        <v>-232300</v>
+        <v>-236500</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1396,13 +1396,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>221600</v>
+        <v>225600</v>
       </c>
       <c r="E35" s="3">
-        <v>145300</v>
+        <v>147900</v>
       </c>
       <c r="F35" s="3">
-        <v>-232300</v>
+        <v>-236500</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1481,13 +1481,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>156000</v>
+        <v>158700</v>
       </c>
       <c r="E41" s="3">
-        <v>301200</v>
+        <v>306600</v>
       </c>
       <c r="F41" s="3">
-        <v>132500</v>
+        <v>134900</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1508,13 +1508,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>43700</v>
+        <v>44500</v>
       </c>
       <c r="E42" s="3">
-        <v>29100</v>
+        <v>29600</v>
       </c>
       <c r="F42" s="3">
-        <v>21900</v>
+        <v>22300</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1535,13 +1535,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>342800</v>
+        <v>349000</v>
       </c>
       <c r="E43" s="3">
-        <v>282400</v>
+        <v>287400</v>
       </c>
       <c r="F43" s="3">
-        <v>215100</v>
+        <v>219000</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1562,13 +1562,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1030000</v>
+        <v>1048400</v>
       </c>
       <c r="E44" s="3">
-        <v>640700</v>
+        <v>652100</v>
       </c>
       <c r="F44" s="3">
-        <v>654300</v>
+        <v>666000</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1589,13 +1589,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>111600</v>
+        <v>113600</v>
       </c>
       <c r="E45" s="3">
-        <v>98700</v>
+        <v>100500</v>
       </c>
       <c r="F45" s="3">
-        <v>92200</v>
+        <v>93800</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1616,13 +1616,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1684100</v>
+        <v>1714200</v>
       </c>
       <c r="E46" s="3">
-        <v>1352100</v>
+        <v>1376200</v>
       </c>
       <c r="F46" s="3">
-        <v>1116100</v>
+        <v>1136000</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1643,13 +1643,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>28000</v>
+        <v>28500</v>
       </c>
       <c r="E47" s="3">
-        <v>20700</v>
+        <v>21100</v>
       </c>
       <c r="F47" s="3">
-        <v>22700</v>
+        <v>23100</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1670,13 +1670,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1247800</v>
+        <v>1270100</v>
       </c>
       <c r="E48" s="3">
-        <v>1177600</v>
+        <v>1198700</v>
       </c>
       <c r="F48" s="3">
-        <v>1218800</v>
+        <v>1240600</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1697,13 +1697,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>186900</v>
+        <v>190200</v>
       </c>
       <c r="E49" s="3">
-        <v>173100</v>
+        <v>176200</v>
       </c>
       <c r="F49" s="3">
-        <v>180100</v>
+        <v>183400</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1778,13 +1778,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>161200</v>
+        <v>164100</v>
       </c>
       <c r="E52" s="3">
-        <v>170600</v>
+        <v>173700</v>
       </c>
       <c r="F52" s="3">
-        <v>181800</v>
+        <v>185100</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1832,13 +1832,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3307900</v>
+        <v>3367000</v>
       </c>
       <c r="E54" s="3">
-        <v>2894200</v>
+        <v>2945900</v>
       </c>
       <c r="F54" s="3">
-        <v>2719600</v>
+        <v>2768200</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -1885,13 +1885,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>652900</v>
+        <v>664600</v>
       </c>
       <c r="E57" s="3">
-        <v>491300</v>
+        <v>500100</v>
       </c>
       <c r="F57" s="3">
-        <v>316600</v>
+        <v>322200</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -1912,13 +1912,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>233400</v>
+        <v>237600</v>
       </c>
       <c r="E58" s="3">
-        <v>220000</v>
+        <v>223900</v>
       </c>
       <c r="F58" s="3">
-        <v>300500</v>
+        <v>305800</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -1939,13 +1939,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>376300</v>
+        <v>383000</v>
       </c>
       <c r="E59" s="3">
-        <v>323200</v>
+        <v>329000</v>
       </c>
       <c r="F59" s="3">
-        <v>292500</v>
+        <v>297700</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -1966,13 +1966,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1262600</v>
+        <v>1285200</v>
       </c>
       <c r="E60" s="3">
-        <v>1034600</v>
+        <v>1053000</v>
       </c>
       <c r="F60" s="3">
-        <v>909600</v>
+        <v>925800</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -1993,13 +1993,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>734100</v>
+        <v>747200</v>
       </c>
       <c r="E61" s="3">
-        <v>745500</v>
+        <v>758800</v>
       </c>
       <c r="F61" s="3">
-        <v>894500</v>
+        <v>910500</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2020,13 +2020,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>110000</v>
+        <v>111900</v>
       </c>
       <c r="E62" s="3">
-        <v>120000</v>
+        <v>122100</v>
       </c>
       <c r="F62" s="3">
-        <v>111500</v>
+        <v>113500</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2128,13 +2128,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2126600</v>
+        <v>2164600</v>
       </c>
       <c r="E66" s="3">
-        <v>1915100</v>
+        <v>1949300</v>
       </c>
       <c r="F66" s="3">
-        <v>1922000</v>
+        <v>1956400</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2276,13 +2276,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1083100</v>
+        <v>1102400</v>
       </c>
       <c r="E72" s="3">
-        <v>899300</v>
+        <v>915400</v>
       </c>
       <c r="F72" s="3">
-        <v>747800</v>
+        <v>761100</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2384,13 +2384,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1181300</v>
+        <v>1202400</v>
       </c>
       <c r="E76" s="3">
-        <v>979100</v>
+        <v>996500</v>
       </c>
       <c r="F76" s="3">
-        <v>797500</v>
+        <v>811800</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2470,13 +2470,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>221600</v>
+        <v>225600</v>
       </c>
       <c r="E81" s="3">
-        <v>145300</v>
+        <v>147900</v>
       </c>
       <c r="F81" s="3">
-        <v>-232300</v>
+        <v>-236500</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2510,10 +2510,10 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>365000</v>
+        <v>371600</v>
       </c>
       <c r="E83" s="3">
-        <v>359000</v>
+        <v>365400</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
@@ -2672,10 +2672,10 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>378000</v>
+        <v>384700</v>
       </c>
       <c r="E89" s="3">
-        <v>696300</v>
+        <v>708700</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
@@ -2712,10 +2712,10 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-160200</v>
+        <v>-163000</v>
       </c>
       <c r="E91" s="3">
-        <v>-86000</v>
+        <v>-87500</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
@@ -2793,10 +2793,10 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-202800</v>
+        <v>-206400</v>
       </c>
       <c r="E94" s="3">
-        <v>-103800</v>
+        <v>-105700</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
@@ -2833,10 +2833,10 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-51100</v>
+        <v>-52000</v>
       </c>
       <c r="E96" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -2941,10 +2941,10 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-325100</v>
+        <v>-330900</v>
       </c>
       <c r="E100" s="3">
-        <v>-432200</v>
+        <v>-439900</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
@@ -2968,10 +2968,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="E101" s="3">
-        <v>8400</v>
+        <v>8600</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>3</v>
@@ -2995,10 +2995,10 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-145300</v>
+        <v>-147800</v>
       </c>
       <c r="E102" s="3">
-        <v>168700</v>
+        <v>171700</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/BOSSY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BOSSY_YR_FIN.xlsx
@@ -712,13 +712,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>3932200</v>
+        <v>3958500</v>
       </c>
       <c r="E8" s="3">
-        <v>3000400</v>
+        <v>3020400</v>
       </c>
       <c r="F8" s="3">
-        <v>2095500</v>
+        <v>2109500</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -739,13 +739,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1502300</v>
+        <v>1512400</v>
       </c>
       <c r="E9" s="3">
-        <v>1147200</v>
+        <v>1154900</v>
       </c>
       <c r="F9" s="3">
-        <v>817000</v>
+        <v>822400</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -766,13 +766,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>2429800</v>
+        <v>2446100</v>
       </c>
       <c r="E10" s="3">
-        <v>1853100</v>
+        <v>1865500</v>
       </c>
       <c r="F10" s="3">
-        <v>1278500</v>
+        <v>1287000</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -806,13 +806,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>84000</v>
+        <v>84500</v>
       </c>
       <c r="E12" s="3">
-        <v>59300</v>
+        <v>59700</v>
       </c>
       <c r="F12" s="3">
-        <v>60100</v>
+        <v>60500</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -863,10 +863,10 @@
         <v>-4300</v>
       </c>
       <c r="E14" s="3">
-        <v>-32700</v>
+        <v>-32900</v>
       </c>
       <c r="F14" s="3">
-        <v>-27000</v>
+        <v>-27200</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -924,13 +924,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3571000</v>
+        <v>3594800</v>
       </c>
       <c r="E17" s="3">
-        <v>2754800</v>
+        <v>2773200</v>
       </c>
       <c r="F17" s="3">
-        <v>2349200</v>
+        <v>2364900</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -951,13 +951,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>361200</v>
+        <v>363600</v>
       </c>
       <c r="E18" s="3">
-        <v>245500</v>
+        <v>247200</v>
       </c>
       <c r="F18" s="3">
-        <v>-253700</v>
+        <v>-255400</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -991,10 +991,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-25900</v>
+        <v>-26100</v>
       </c>
       <c r="E20" s="3">
-        <v>-9200</v>
+        <v>-9300</v>
       </c>
       <c r="F20" s="3">
         <v>-9900</v>
@@ -1018,10 +1018,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>709300</v>
+        <v>711600</v>
       </c>
       <c r="E21" s="3">
-        <v>604100</v>
+        <v>605700</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1045,13 +1045,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>28100</v>
+        <v>28300</v>
       </c>
       <c r="E22" s="3">
-        <v>24300</v>
+        <v>24500</v>
       </c>
       <c r="F22" s="3">
-        <v>30600</v>
+        <v>30800</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1072,13 +1072,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>307200</v>
+        <v>309300</v>
       </c>
       <c r="E23" s="3">
-        <v>212000</v>
+        <v>213400</v>
       </c>
       <c r="F23" s="3">
-        <v>-294200</v>
+        <v>-296200</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1099,13 +1099,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>68300</v>
+        <v>68800</v>
       </c>
       <c r="E24" s="3">
-        <v>56800</v>
+        <v>57200</v>
       </c>
       <c r="F24" s="3">
-        <v>-58200</v>
+        <v>-58600</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1153,13 +1153,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>238900</v>
+        <v>240500</v>
       </c>
       <c r="E26" s="3">
-        <v>155200</v>
+        <v>156200</v>
       </c>
       <c r="F26" s="3">
-        <v>-236000</v>
+        <v>-237600</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1180,13 +1180,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>225600</v>
+        <v>227100</v>
       </c>
       <c r="E27" s="3">
-        <v>147900</v>
+        <v>148900</v>
       </c>
       <c r="F27" s="3">
-        <v>-236500</v>
+        <v>-238100</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1315,10 +1315,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>25900</v>
+        <v>26100</v>
       </c>
       <c r="E32" s="3">
-        <v>9200</v>
+        <v>9300</v>
       </c>
       <c r="F32" s="3">
         <v>9900</v>
@@ -1342,13 +1342,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>225600</v>
+        <v>227100</v>
       </c>
       <c r="E33" s="3">
-        <v>147900</v>
+        <v>148900</v>
       </c>
       <c r="F33" s="3">
-        <v>-236500</v>
+        <v>-238100</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1396,13 +1396,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>225600</v>
+        <v>227100</v>
       </c>
       <c r="E35" s="3">
-        <v>147900</v>
+        <v>148900</v>
       </c>
       <c r="F35" s="3">
-        <v>-236500</v>
+        <v>-238100</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1481,13 +1481,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>158700</v>
+        <v>159800</v>
       </c>
       <c r="E41" s="3">
-        <v>306600</v>
+        <v>308600</v>
       </c>
       <c r="F41" s="3">
-        <v>134900</v>
+        <v>135800</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1508,13 +1508,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>44500</v>
+        <v>44800</v>
       </c>
       <c r="E42" s="3">
-        <v>29600</v>
+        <v>29800</v>
       </c>
       <c r="F42" s="3">
-        <v>22300</v>
+        <v>22500</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1535,13 +1535,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>349000</v>
+        <v>351300</v>
       </c>
       <c r="E43" s="3">
-        <v>287400</v>
+        <v>289400</v>
       </c>
       <c r="F43" s="3">
-        <v>219000</v>
+        <v>220400</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1562,13 +1562,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1048400</v>
+        <v>1055400</v>
       </c>
       <c r="E44" s="3">
-        <v>652100</v>
+        <v>656500</v>
       </c>
       <c r="F44" s="3">
-        <v>666000</v>
+        <v>670500</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1589,13 +1589,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>113600</v>
+        <v>114300</v>
       </c>
       <c r="E45" s="3">
-        <v>100500</v>
+        <v>101200</v>
       </c>
       <c r="F45" s="3">
-        <v>93800</v>
+        <v>94500</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1616,13 +1616,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1714200</v>
+        <v>1725700</v>
       </c>
       <c r="E46" s="3">
-        <v>1376200</v>
+        <v>1385400</v>
       </c>
       <c r="F46" s="3">
-        <v>1136000</v>
+        <v>1143600</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1643,13 +1643,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>28500</v>
+        <v>28700</v>
       </c>
       <c r="E47" s="3">
-        <v>21100</v>
+        <v>21200</v>
       </c>
       <c r="F47" s="3">
-        <v>23100</v>
+        <v>23300</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1670,13 +1670,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1270100</v>
+        <v>1278600</v>
       </c>
       <c r="E48" s="3">
-        <v>1198700</v>
+        <v>1206700</v>
       </c>
       <c r="F48" s="3">
-        <v>1240600</v>
+        <v>1248900</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1697,13 +1697,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>190200</v>
+        <v>191500</v>
       </c>
       <c r="E49" s="3">
-        <v>176200</v>
+        <v>177400</v>
       </c>
       <c r="F49" s="3">
-        <v>183400</v>
+        <v>184600</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1778,13 +1778,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>164100</v>
+        <v>165200</v>
       </c>
       <c r="E52" s="3">
-        <v>173700</v>
+        <v>174900</v>
       </c>
       <c r="F52" s="3">
-        <v>185100</v>
+        <v>186300</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1832,13 +1832,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3367000</v>
+        <v>3389500</v>
       </c>
       <c r="E54" s="3">
-        <v>2945900</v>
+        <v>2965600</v>
       </c>
       <c r="F54" s="3">
-        <v>2768200</v>
+        <v>2786700</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -1885,13 +1885,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>664600</v>
+        <v>669000</v>
       </c>
       <c r="E57" s="3">
-        <v>500100</v>
+        <v>503500</v>
       </c>
       <c r="F57" s="3">
-        <v>322200</v>
+        <v>324400</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -1912,13 +1912,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>237600</v>
+        <v>239200</v>
       </c>
       <c r="E58" s="3">
-        <v>223900</v>
+        <v>225400</v>
       </c>
       <c r="F58" s="3">
-        <v>305800</v>
+        <v>307900</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -1939,13 +1939,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>383000</v>
+        <v>385600</v>
       </c>
       <c r="E59" s="3">
-        <v>329000</v>
+        <v>331200</v>
       </c>
       <c r="F59" s="3">
-        <v>297700</v>
+        <v>299700</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -1966,13 +1966,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1285200</v>
+        <v>1293800</v>
       </c>
       <c r="E60" s="3">
-        <v>1053000</v>
+        <v>1060100</v>
       </c>
       <c r="F60" s="3">
-        <v>925800</v>
+        <v>932000</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -1993,13 +1993,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>747200</v>
+        <v>752200</v>
       </c>
       <c r="E61" s="3">
-        <v>758800</v>
+        <v>763900</v>
       </c>
       <c r="F61" s="3">
-        <v>910500</v>
+        <v>916600</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2020,13 +2020,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>111900</v>
+        <v>112700</v>
       </c>
       <c r="E62" s="3">
-        <v>122100</v>
+        <v>122900</v>
       </c>
       <c r="F62" s="3">
-        <v>113500</v>
+        <v>114200</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2128,13 +2128,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2164600</v>
+        <v>2179100</v>
       </c>
       <c r="E66" s="3">
-        <v>1949300</v>
+        <v>1962400</v>
       </c>
       <c r="F66" s="3">
-        <v>1956400</v>
+        <v>1969500</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2276,13 +2276,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1102400</v>
+        <v>1109800</v>
       </c>
       <c r="E72" s="3">
-        <v>915400</v>
+        <v>921500</v>
       </c>
       <c r="F72" s="3">
-        <v>761100</v>
+        <v>766200</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2384,13 +2384,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1202400</v>
+        <v>1210500</v>
       </c>
       <c r="E76" s="3">
-        <v>996500</v>
+        <v>1003200</v>
       </c>
       <c r="F76" s="3">
-        <v>811800</v>
+        <v>817200</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2470,13 +2470,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>225600</v>
+        <v>227100</v>
       </c>
       <c r="E81" s="3">
-        <v>147900</v>
+        <v>148900</v>
       </c>
       <c r="F81" s="3">
-        <v>-236500</v>
+        <v>-238100</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2510,10 +2510,10 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>371600</v>
+        <v>374000</v>
       </c>
       <c r="E83" s="3">
-        <v>365400</v>
+        <v>367800</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
@@ -2672,10 +2672,10 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>384700</v>
+        <v>387300</v>
       </c>
       <c r="E89" s="3">
-        <v>708700</v>
+        <v>713500</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
@@ -2712,10 +2712,10 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-163000</v>
+        <v>-164100</v>
       </c>
       <c r="E91" s="3">
-        <v>-87500</v>
+        <v>-88100</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
@@ -2793,10 +2793,10 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-206400</v>
+        <v>-207800</v>
       </c>
       <c r="E94" s="3">
-        <v>-105700</v>
+        <v>-106400</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
@@ -2833,7 +2833,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-52000</v>
+        <v>-52400</v>
       </c>
       <c r="E96" s="3">
         <v>-3000</v>
@@ -2941,10 +2941,10 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-330900</v>
+        <v>-333100</v>
       </c>
       <c r="E100" s="3">
-        <v>-439900</v>
+        <v>-442900</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
@@ -2995,10 +2995,10 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-147800</v>
+        <v>-148800</v>
       </c>
       <c r="E102" s="3">
-        <v>171700</v>
+        <v>172800</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/BOSSY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BOSSY_YR_FIN.xlsx
@@ -712,13 +712,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>3958500</v>
+        <v>3961700</v>
       </c>
       <c r="E8" s="3">
-        <v>3020400</v>
+        <v>3022900</v>
       </c>
       <c r="F8" s="3">
-        <v>2109500</v>
+        <v>2111200</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -739,13 +739,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1512400</v>
+        <v>1513600</v>
       </c>
       <c r="E9" s="3">
-        <v>1154900</v>
+        <v>1155900</v>
       </c>
       <c r="F9" s="3">
-        <v>822400</v>
+        <v>823100</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -766,13 +766,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>2446100</v>
+        <v>2448100</v>
       </c>
       <c r="E10" s="3">
-        <v>1865500</v>
+        <v>1867100</v>
       </c>
       <c r="F10" s="3">
-        <v>1287000</v>
+        <v>1288100</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -806,7 +806,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>84500</v>
+        <v>84600</v>
       </c>
       <c r="E12" s="3">
         <v>59700</v>
@@ -924,13 +924,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3594800</v>
+        <v>3597800</v>
       </c>
       <c r="E17" s="3">
-        <v>2773200</v>
+        <v>2775500</v>
       </c>
       <c r="F17" s="3">
-        <v>2364900</v>
+        <v>2366900</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -951,13 +951,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>363600</v>
+        <v>363900</v>
       </c>
       <c r="E18" s="3">
-        <v>247200</v>
+        <v>247400</v>
       </c>
       <c r="F18" s="3">
-        <v>-255400</v>
+        <v>-255600</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -1018,10 +1018,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>711600</v>
+        <v>712100</v>
       </c>
       <c r="E21" s="3">
-        <v>605700</v>
+        <v>606100</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1051,7 +1051,7 @@
         <v>24500</v>
       </c>
       <c r="F22" s="3">
-        <v>30800</v>
+        <v>30900</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1072,13 +1072,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>309300</v>
+        <v>309500</v>
       </c>
       <c r="E23" s="3">
-        <v>213400</v>
+        <v>213600</v>
       </c>
       <c r="F23" s="3">
-        <v>-296200</v>
+        <v>-296500</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1153,13 +1153,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>240500</v>
+        <v>240700</v>
       </c>
       <c r="E26" s="3">
-        <v>156200</v>
+        <v>156400</v>
       </c>
       <c r="F26" s="3">
-        <v>-237600</v>
+        <v>-237800</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1180,13 +1180,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>227100</v>
+        <v>227300</v>
       </c>
       <c r="E27" s="3">
-        <v>148900</v>
+        <v>149000</v>
       </c>
       <c r="F27" s="3">
-        <v>-238100</v>
+        <v>-238300</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1342,13 +1342,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>227100</v>
+        <v>227300</v>
       </c>
       <c r="E33" s="3">
-        <v>148900</v>
+        <v>149000</v>
       </c>
       <c r="F33" s="3">
-        <v>-238100</v>
+        <v>-238300</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1396,13 +1396,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>227100</v>
+        <v>227300</v>
       </c>
       <c r="E35" s="3">
-        <v>148900</v>
+        <v>149000</v>
       </c>
       <c r="F35" s="3">
-        <v>-238100</v>
+        <v>-238300</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1481,13 +1481,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>159800</v>
+        <v>159900</v>
       </c>
       <c r="E41" s="3">
-        <v>308600</v>
+        <v>308900</v>
       </c>
       <c r="F41" s="3">
-        <v>135800</v>
+        <v>135900</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1508,7 +1508,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>44800</v>
+        <v>44900</v>
       </c>
       <c r="E42" s="3">
         <v>29800</v>
@@ -1535,13 +1535,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>351300</v>
+        <v>351600</v>
       </c>
       <c r="E43" s="3">
-        <v>289400</v>
+        <v>289600</v>
       </c>
       <c r="F43" s="3">
-        <v>220400</v>
+        <v>220600</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1562,13 +1562,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1055400</v>
+        <v>1056300</v>
       </c>
       <c r="E44" s="3">
-        <v>656500</v>
+        <v>657000</v>
       </c>
       <c r="F44" s="3">
-        <v>670500</v>
+        <v>671000</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1589,10 +1589,10 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>114300</v>
+        <v>114400</v>
       </c>
       <c r="E45" s="3">
-        <v>101200</v>
+        <v>101300</v>
       </c>
       <c r="F45" s="3">
         <v>94500</v>
@@ -1616,13 +1616,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1725700</v>
+        <v>1727100</v>
       </c>
       <c r="E46" s="3">
-        <v>1385400</v>
+        <v>1386600</v>
       </c>
       <c r="F46" s="3">
-        <v>1143600</v>
+        <v>1144600</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1670,13 +1670,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1278600</v>
+        <v>1279600</v>
       </c>
       <c r="E48" s="3">
-        <v>1206700</v>
+        <v>1207700</v>
       </c>
       <c r="F48" s="3">
-        <v>1248900</v>
+        <v>1249900</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1697,13 +1697,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>191500</v>
+        <v>191600</v>
       </c>
       <c r="E49" s="3">
-        <v>177400</v>
+        <v>177500</v>
       </c>
       <c r="F49" s="3">
-        <v>184600</v>
+        <v>184700</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1778,13 +1778,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>165200</v>
+        <v>165300</v>
       </c>
       <c r="E52" s="3">
-        <v>174900</v>
+        <v>175000</v>
       </c>
       <c r="F52" s="3">
-        <v>186300</v>
+        <v>186400</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1832,13 +1832,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3389500</v>
+        <v>3392400</v>
       </c>
       <c r="E54" s="3">
-        <v>2965600</v>
+        <v>2968000</v>
       </c>
       <c r="F54" s="3">
-        <v>2786700</v>
+        <v>2789000</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -1885,13 +1885,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>669000</v>
+        <v>669600</v>
       </c>
       <c r="E57" s="3">
-        <v>503500</v>
+        <v>503900</v>
       </c>
       <c r="F57" s="3">
-        <v>324400</v>
+        <v>324700</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -1912,13 +1912,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>239200</v>
+        <v>239400</v>
       </c>
       <c r="E58" s="3">
-        <v>225400</v>
+        <v>225600</v>
       </c>
       <c r="F58" s="3">
-        <v>307900</v>
+        <v>308100</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -1939,13 +1939,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>385600</v>
+        <v>385900</v>
       </c>
       <c r="E59" s="3">
-        <v>331200</v>
+        <v>331400</v>
       </c>
       <c r="F59" s="3">
-        <v>299700</v>
+        <v>300000</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -1966,13 +1966,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1293800</v>
+        <v>1294900</v>
       </c>
       <c r="E60" s="3">
-        <v>1060100</v>
+        <v>1061000</v>
       </c>
       <c r="F60" s="3">
-        <v>932000</v>
+        <v>932800</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -1993,13 +1993,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>752200</v>
+        <v>752800</v>
       </c>
       <c r="E61" s="3">
-        <v>763900</v>
+        <v>764500</v>
       </c>
       <c r="F61" s="3">
-        <v>916600</v>
+        <v>917300</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2020,13 +2020,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>112700</v>
+        <v>112800</v>
       </c>
       <c r="E62" s="3">
-        <v>122900</v>
+        <v>123000</v>
       </c>
       <c r="F62" s="3">
-        <v>114200</v>
+        <v>114300</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2128,13 +2128,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2179100</v>
+        <v>2180900</v>
       </c>
       <c r="E66" s="3">
-        <v>1962400</v>
+        <v>1964000</v>
       </c>
       <c r="F66" s="3">
-        <v>1969500</v>
+        <v>1971100</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2276,13 +2276,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1109800</v>
+        <v>1110700</v>
       </c>
       <c r="E72" s="3">
-        <v>921500</v>
+        <v>922300</v>
       </c>
       <c r="F72" s="3">
-        <v>766200</v>
+        <v>766900</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2384,13 +2384,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1210500</v>
+        <v>1211500</v>
       </c>
       <c r="E76" s="3">
-        <v>1003200</v>
+        <v>1004000</v>
       </c>
       <c r="F76" s="3">
-        <v>817200</v>
+        <v>817900</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2470,13 +2470,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>227100</v>
+        <v>227300</v>
       </c>
       <c r="E81" s="3">
-        <v>148900</v>
+        <v>149000</v>
       </c>
       <c r="F81" s="3">
-        <v>-238100</v>
+        <v>-238300</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2510,10 +2510,10 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>374000</v>
+        <v>374400</v>
       </c>
       <c r="E83" s="3">
-        <v>367800</v>
+        <v>368100</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
@@ -2672,10 +2672,10 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>387300</v>
+        <v>387600</v>
       </c>
       <c r="E89" s="3">
-        <v>713500</v>
+        <v>714000</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
@@ -2712,10 +2712,10 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-164100</v>
+        <v>-164300</v>
       </c>
       <c r="E91" s="3">
-        <v>-88100</v>
+        <v>-88200</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
@@ -2793,10 +2793,10 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-207800</v>
+        <v>-208000</v>
       </c>
       <c r="E94" s="3">
-        <v>-106400</v>
+        <v>-106500</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
@@ -2941,10 +2941,10 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-333100</v>
+        <v>-333400</v>
       </c>
       <c r="E100" s="3">
-        <v>-442900</v>
+        <v>-443200</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
@@ -2995,10 +2995,10 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-148800</v>
+        <v>-149000</v>
       </c>
       <c r="E102" s="3">
-        <v>172800</v>
+        <v>173000</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>3</v>
